--- a/SPPSApi/Doc/Template/FS0108_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0108_Data.xlsx
@@ -16,10 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>供应商编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>工区</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -33,6 +29,10 @@
   </si>
   <si>
     <t>发注工场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -417,34 +417,34 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0108_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0108_Data.xlsx
@@ -417,16 +417,16 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -438,13 +438,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
